--- a/output/page_9.xlsx
+++ b/output/page_9.xlsx
@@ -7,24 +7,19 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Page 1 - Table 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t>ow ee - =
--—</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>-—</t>
   </si>
   <si>
-    <t>it
-it</t>
+    <t>an--</t>
   </si>
 </sst>
 </file>
@@ -374,33 +369,43 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="2.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="1"/>
-    </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A2:B2"/>
+  <mergeCells count="3">
+    <mergeCell ref="B1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="A3:B3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/output/page_9.xlsx
+++ b/output/page_9.xlsx
@@ -7,26 +7,37 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="page_9 - Table 1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
-    <t>-—</t>
+    <t>ow ee - =
+-—</t>
   </si>
   <si>
-    <t>an--</t>
+    <t xml:space="preserve"> MASTER PACKAGE</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> WesternGlove Centric8 PROD                             M12225BVS563:KONRAD                         CONSTRUCTION SKETCH DETAILS                                 MASTER</t>
+  </si>
+  <si>
+    <t>TEMPLATE 2 (BACK) - 2NDL 1/4" G. BACK YOKE</t>
+  </si>
+  <si>
+    <t>it
+it</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -34,13 +45,48 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF3F2F4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF6F6F6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -70,9 +116,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -369,43 +427,123 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:Z6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="2.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="1"/>
+    <row r="1" spans="1:26">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
+    <row r="2" spans="1:26">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="X2" s="2"/>
+      <c r="Y2" s="2"/>
+      <c r="Z2" s="2"/>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1" t="s">
+    <row r="4" spans="1:26">
+      <c r="A4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
+      <c r="U4" s="3"/>
+      <c r="V4" s="3"/>
+      <c r="W4" s="3"/>
+      <c r="X4" s="3"/>
+      <c r="Y4" s="3"/>
+      <c r="Z4" s="3"/>
+    </row>
+    <row r="5" spans="1:26">
+      <c r="A5" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1" t="s">
-        <v>1</v>
+      <c r="B5" s="4"/>
+    </row>
+    <row r="6" spans="1:26">
+      <c r="A6" s="5" t="s">
+        <v>4</v>
       </c>
+      <c r="B6" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="B1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="A3:B3"/>
+  <mergeCells count="4">
+    <mergeCell ref="A1:Z1"/>
+    <mergeCell ref="A2:Z2"/>
+    <mergeCell ref="A4:Z4"/>
+    <mergeCell ref="A6:B6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
